--- a/new.xlsx
+++ b/new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PORKAR BALAJI</t>
+          <t>ARUN VELANO</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -511,17 +511,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>Sep, 2018</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Nice vehicle in this budget</t>
+          <t>Best briyani masala ever! If you want a tasty briyani really go for it.</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>RADHA KRISHNA YERRAM</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -556,17 +556,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fabulous!</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>Jan, 2021</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Good vehicle at good prices.. thanks a lot... flip kart</t>
+          <t>Loved it</t>
         </is>
       </c>
     </row>
@@ -578,40 +578,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ZAHIRHUSEN  SAIYAD</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Good choice</t>
+          <t>Best in the market!</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>Sep, 2019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Premium Look, white colour, best ride 115 km (double),</t>
+          <t>fine</t>
         </is>
       </c>
     </row>
@@ -623,40 +623,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RISHABH PANDEY</t>
+          <t xml:space="preserve">SHAIK GHOUSE  MOHIDDIN </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Terrific purchase</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Scooty manufactured frame not comfortable. Side stand out from chesis frame and tuch left leg all time.</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -668,30 +668,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAMESH NANERIYA</t>
+          <t>RUPALI DHONGADE</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Simply awesome</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Nice EV Good for all iam happy with</t>
+          <t>smell good.</t>
         </is>
       </c>
     </row>
@@ -713,40 +713,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DHARMENDRA BHANGE</t>
+          <t>MOHAMMAD SHAHID HUSSAIN</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Super!</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>Feb, 2023</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Good e bike</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -758,40 +758,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VINAY GUPTA</t>
+          <t>REENA BHARTI</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Must buy!</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>Dec, 2022</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Amazing experience with BGauss two wheeler value for money</t>
+          <t>Super test</t>
         </is>
       </c>
     </row>
@@ -803,40 +803,985 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹1,36,429</t>
+          <t>₹74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bgauss Bg C12i Max 2 0 Booking Ex Showroom Price With Can Enabled Charger Matte Blue</t>
+          <t>Everest Shahi Biryani Masala</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BHANU KIRAN</t>
+          <t>SOUMYARANJAN DAS</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Terrific</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jul, 2022</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Superb</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SAMAPTI DAS</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fabulous!</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jun, 2022</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Very Good....</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KUMAR SWAMI</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Really Nice</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2 months ago</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>After 4 months usage.. bike is very much comfortable to seat 2 adults.. mileage 100-110. Speed max is 60 in sport mode. Boot space is huge,can keep helmet and others also..Removable battery.. 4.5 hrs charging time for full battery..Bike stand censor issues noticed..</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Good quality product</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jul, 2021</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Brilliant</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jun, 2021</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Perfect</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BABITA DEVI</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Very poor</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jun, 2021</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>This is not good and rate of this product is very high</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Value-for-money</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>May, 2021</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HABEEB  KHAN </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Worth the money</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Apr, 2021</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Very nice 👌👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SHASHIKANT UBALE</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wonderful</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mar, 2021</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Very best</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Perfect product!</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PRATIK  DAS</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Awesome</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Fully satisfied with the product send by flipkart to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KRITIKA  TRIPATHI</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Classy product</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Tasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MADHUMITA BHOWMIK  MADHUMITA BHOWMIK </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mind-blowing purchase</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SATHISH K</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Super!</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Dec, 2020</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CHITTARANJAN MALLICK</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Best in the market!</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nov, 2020</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Wow</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NARENDRA PATEL</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Must buy!</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Oct, 2020</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Very nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TANIYA SAHA</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Super!</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Oct, 2020</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Thank u</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SAMIR SARKAR</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Perfect product!</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sep, 2020</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Verry nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Mind-blowing purchase</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sep, 2020</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MOUMITA DAS</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Decent product</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sep, 2020</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Good , but not that great</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>REKHA BISWAS</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Aug, 2020</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>super.....</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SASWAT BB</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Useless product</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Jul, 2020</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>bad product</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>₹74</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Everest Shahi Biryani Masala</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Terrific</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Jul, 2020</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARUN VELANO</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -516,12 +516,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sep, 2018</t>
+          <t>Jun, 2021</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Best briyani masala ever! If you want a tasty briyani really go for it.</t>
+          <t>Perfect</t>
         </is>
       </c>
     </row>
@@ -548,25 +548,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RADHA KRISHNA YERRAM</t>
+          <t>BABITA DEVI</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Very poor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Jun, 2021</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Loved it</t>
+          <t>This is not good and rate of this product is very high</t>
         </is>
       </c>
     </row>
@@ -597,21 +597,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Best in the market!</t>
+          <t>Value-for-money</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sep, 2019</t>
+          <t>May, 2021</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
@@ -638,25 +638,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK GHOUSE  MOHIDDIN </t>
+          <t xml:space="preserve">HABEEB  KHAN </t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>Apr, 2021</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Very nice 👌👍</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RUPALI DHONGADE</t>
+          <t>SHASHIKANT UBALE</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>Mar, 2021</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>smell good.</t>
+          <t>Very best</t>
         </is>
       </c>
     </row>
@@ -728,20 +728,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOHAMMAD SHAHID HUSSAIN</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Perfect product!</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Feb, 2023</t>
+          <t>Jan, 2021</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -773,25 +773,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>REENA BHARTI</t>
+          <t>PRATIK  DAS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dec, 2022</t>
+          <t>Jan, 2021</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Super test</t>
+          <t>Fully satisfied with the product send by flipkart to me.</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOUMYARANJAN DAS</t>
+          <t>KRITIKA  TRIPATHI</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Terrific</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Jul, 2022</t>
+          <t>Jan, 2021</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Tasty</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SAMAPTI DAS</t>
+          <t xml:space="preserve">MADHUMITA BHOWMIK  MADHUMITA BHOWMIK </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fabulous!</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jun, 2022</t>
+          <t>Jan, 2021</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Very Good....</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -908,25 +908,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KUMAR SWAMI</t>
+          <t>SATHISH K</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Good quality product</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Jul, 2021</t>
+          <t>Dec, 2020</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>CHITTARANJAN MALLICK</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Best in the market!</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>Nov, 2020</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>Wow</t>
         </is>
       </c>
     </row>
@@ -998,25 +998,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BABITA DEVI</t>
+          <t>NARENDRA PATEL</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Very poor</t>
+          <t>Must buy!</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>Oct, 2020</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>This is not good and rate of this product is very high</t>
+          <t>Very nice</t>
         </is>
       </c>
     </row>
@@ -1043,25 +1043,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>TANIYA SAHA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Value-for-money</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>May, 2021</t>
+          <t>Oct, 2020</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Thank u</t>
         </is>
       </c>
     </row>
@@ -1088,25 +1088,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABEEB  KHAN </t>
+          <t>SAMIR SARKAR</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Perfect product!</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Apr, 2021</t>
+          <t>Sep, 2020</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Very nice 👌👍</t>
+          <t>Verry nice</t>
         </is>
       </c>
     </row>
@@ -1133,25 +1133,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SHASHIKANT UBALE</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Mar, 2021</t>
+          <t>Sep, 2020</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Very best</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -1178,25 +1178,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>MOUMITA DAS</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Perfect product!</t>
+          <t>Decent product</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Sep, 2020</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Good , but not that great</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PRATIK  DAS</t>
+          <t>REKHA BISWAS</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Aug, 2020</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Fully satisfied with the product send by flipkart to me.</t>
+          <t>super.....</t>
         </is>
       </c>
     </row>
@@ -1268,25 +1268,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KRITIKA  TRIPATHI</t>
+          <t>SASWAT BB</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Classy product</t>
+          <t>Useless product</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Jul, 2020</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tasty</t>
+          <t>bad product</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">MADHUMITA BHOWMIK  MADHUMITA BHOWMIK </t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,465 +1321,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Mind-blowing purchase</t>
+          <t>Terrific</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Jul, 2020</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SATHISH K</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Super!</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Dec, 2020</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Nice</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CHITTARANJAN MALLICK</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Best in the market!</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Nov, 2020</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Wow</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NARENDRA PATEL</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Must buy!</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Oct, 2020</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Very nice</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>TANIYA SAHA</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Super!</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Oct, 2020</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Thank u</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SAMIR SARKAR</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Perfect product!</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sep, 2020</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Verry nice</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>FLIPKART CUSTOMER</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Mind-blowing purchase</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sep, 2020</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MOUMITA DAS</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Decent product</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Sep, 2020</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Good , but not that great</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>REKHA BISWAS</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Just wow!</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Aug, 2020</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>super.....</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SASWAT BB</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Useless product</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Jul, 2020</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>bad product</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>₹74</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Everest Shahi Biryani Masala</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>FLIPKART CUSTOMER</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Terrific</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Jul, 2020</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
         <is>
           <t>Good</t>
         </is>

--- a/new.xlsx
+++ b/new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,40 +488,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SADA SIVA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Good choice</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>Sep, 2020</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>Got the bat in good shape..Pros. : Stunning eye catching look.           Sweet spot is good            Weights around 1kg             Grains are good enough            Bat grip was so nice to feel      Overall good bat with good performance Cons: small spots can be covered by just painting or something like that.           Toe gaurd is absent.. should have included in this.           Hump is not good ..           Overall good bat at good price.</t>
         </is>
       </c>
     </row>
@@ -533,40 +533,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BABITA DEVI</t>
+          <t>AAKIF AHMED NAIK</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Very poor</t>
+          <t>Simply awesome</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>Nov, 2020</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>This is not good and rate of this product is very high</t>
+          <t>Best bat I like it very much.</t>
         </is>
       </c>
     </row>
@@ -578,40 +578,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SUSHANTA KUMAR MOHANTY</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Value-for-money</t>
+          <t>Simply awesome</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>May, 2021</t>
+          <t>Mar, 2020</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Mast bat</t>
         </is>
       </c>
     </row>
@@ -623,40 +623,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABEEB  KHAN </t>
+          <t>MD SHOEB HASNAIN</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Apr, 2021</t>
+          <t>Jun, 2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Very nice 👌👍</t>
+          <t>Best bat in this range...... I like it 😍</t>
         </is>
       </c>
     </row>
@@ -668,40 +668,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SHASHIKANT UBALE</t>
+          <t>KARAN  JADHAV</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mar, 2021</t>
+          <t>Mar, 2020</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Very best</t>
+          <t>Very good bat for beginner and like it</t>
         </is>
       </c>
     </row>
@@ -713,22 +713,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>MAHESWAR SAMAL</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -736,17 +736,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Perfect product!</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Nov, 2022</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Supern</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PRATIK  DAS</t>
+          <t>ANUJ CHHETRI</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -781,17 +781,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Oct, 2020</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Fully satisfied with the product send by flipkart to me.</t>
+          <t>very good bat for hard tennis ball. But I haven't tried with leather ball.... but for hard tennis ball, it's very good for long hits. width is good</t>
         </is>
       </c>
     </row>
@@ -803,40 +803,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KRITIKA  TRIPATHI</t>
+          <t>SHIVA TRIPATHI</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Classy product</t>
+          <t>Value-for-money</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Aug, 2021</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tasty</t>
+          <t>Good Bat My Height is 5:2 And SH Size is Good For MeCover Not Good 😐</t>
         </is>
       </c>
     </row>
@@ -848,22 +848,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">MADHUMITA BHOWMIK  MADHUMITA BHOWMIK </t>
+          <t>RIDHISH GUPTA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -871,17 +871,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mind-blowing purchase</t>
+          <t>Simply awesome</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>Apr, 2022</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Bat is very good for Vicky ball</t>
         </is>
       </c>
     </row>
@@ -893,40 +893,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SATHISH K</t>
+          <t>SUBHAMOY  DAS</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Super!</t>
+          <t>Delightful</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dec, 2020</t>
+          <t>Feb, 2020</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>SS original product. It's good entry level bat with Large sweet spot. Balance is very good with nice design. The only drawback I have found so far is weight of the bat. A bit heavy. But perfect for those who likes a bit heavy bats.</t>
         </is>
       </c>
     </row>
@@ -938,22 +938,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CHITTARANJAN MALLICK</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Best in the market!</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nov, 2020</t>
+          <t>Jul, 2020</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Wow</t>
+          <t>i can trust on entrepreneur of flipkart that assuredTheir product is  very good that's original i get........................</t>
         </is>
       </c>
     </row>
@@ -983,22 +983,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NARENDRA PATEL</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Must buy!</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Oct, 2020</t>
+          <t>May, 2021</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Very nice</t>
+          <t>Happy happy children</t>
         </is>
       </c>
     </row>
@@ -1028,22 +1028,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TANIYA SAHA</t>
+          <t>MANOJ  ADHIKARI</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Super!</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Oct, 2020</t>
+          <t>Jul, 2021</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thank u</t>
+          <t>Happy with the bat.. Not heavy. Best bat for intermediate level playing. Good shots can be played after knocking it.</t>
         </is>
       </c>
     </row>
@@ -1073,40 +1073,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SAMIR SARKAR</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Perfect product!</t>
+          <t>Fair</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sep, 2020</t>
+          <t>Aug, 2021</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Verry nice</t>
+          <t>Very good product's</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>J SAKUL HAMEED</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Mind-blowing purchase</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sep, 2020</t>
+          <t>Oct, 2021</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Im waiting For My new favourite bat My friend Pickup Hyderabad To Oman</t>
         </is>
       </c>
     </row>
@@ -1163,22 +1163,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUMITA DAS</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Decent product</t>
+          <t>Does the job</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sep, 2020</t>
+          <t>Mar, 2019</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Good , but not that great</t>
+          <t>Good product</t>
         </is>
       </c>
     </row>
@@ -1208,22 +1208,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>REKHA BISWAS</t>
+          <t xml:space="preserve">RAHUL  VERMA </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aug, 2020</t>
+          <t>Oct, 2018</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>super.....</t>
+          <t>this is good product  value for money 💰</t>
         </is>
       </c>
     </row>
@@ -1253,30 +1253,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SASWAT BB</t>
+          <t>GIRISH MANDAL</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Useless product</t>
+          <t>Just okay</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>bad product</t>
+          <t>Quite Good , but not expected so ......! Dont purchase for intermediate level.... It is only for beginners ...... Because the surface of the bat is light soft...! So you need to play first with dues ball then tenis ball .....! So guys as your wish it is quite good ...! Not so ....</t>
         </is>
       </c>
     </row>
@@ -1298,40 +1298,3685 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹74</t>
+          <t>₹2,299</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Everest Shahi Biryani Masala</t>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>SHEKAR V</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Jan, 2019</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>value for money , I liked it</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Decent product</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Oct, 2022</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Good but quality issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RAMAKANTA  MALLICK</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Worth the money</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A little weight 1150gms, below 1 kg would be better for hard tenis or leather ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>YOGANAND K</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Worth the money</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Jul, 2019</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>very good Bat to play cricket with red colour Tennis-Cricket ball.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Good choice</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Apr, 2019</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>lethar pall Bat comming</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ANURADHA BASTIA</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Brilliant</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Aug, 2020</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Nice bat for net practice and beginners . My suggestion is please knock it before playing because the fibre of the willow/wood is not attach with each other properly so when you knock the bat it becomes a nice and wonderful bat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RAJA  DAS</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Classy product</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Aug, 2020</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Tnq to give us a bat in lockdown time</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pretty good</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Okay enough for Money</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nov, 2020</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Suitable for leather ball. Good for beginners. This bat needs knocking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FAREED SHAIK</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Nice product</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nov, 2019</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Awesome and Super bat for Grace ball tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SAHIL SAEED</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Value-for-money</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Jun, 2021</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Yup it was a good bat. But idk it is for leather ball. Why bcoz the bat handle was so weak. It just broken where it hits wrong side of the bat so be careful. But I do knocking my bat for leather ball purpose. Hope it does a pretty good job. So you have to buy this do knocking immediately. Otherwise it will perfect for all kind of balls like stumper, wind ball , cosco etc....</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RIMPA DEBNATH</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mind-blowing purchase</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Very very very nice product</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>EBINESH J</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sep, 2019</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>fantastic</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Does the job</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Apr, 2022</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Bats are coming small please don't buy but alonly small but All are good</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MD NIZAMUDDIN</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Just go for it... Brilliant product...👍🏻💯</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Next level choice for beginner cricketers..... Just amazing and awesome product.... It is more attractive than expected... Go for it... Just wow in this price range...👍🏻❤️🤩</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>INDRAJEET  PATEL</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Worth every penny</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mar, 2019</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MUJAMIL MUJJU</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Very Good</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Jun, 2019</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>superb</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RETHISH R</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Delightful</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3 months ago</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>This bat is ideal for beginners and intermediate players. It offers a cool design and has a good ping. It weighs 1150 grams, which makes it suitable for this price range. It is a great bat for playing with a stitched ball, catering to both beginners and intermediate players. Additionally, it provides powerful hitting with hard tennis balls</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SUBHABRATA KANDAR</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pretty good</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>May, 2021</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Good strockGood balance1.15 kgBut down lather have no moreSo I give 4 star</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Value-for-money</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Apr, 2021</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Bat is good little bit Weight...but Amd small crack on edge it's ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Good choice</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Really a great product but 1 star I took it because cover is not to good</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>KANCHAN THAKKAR</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Delightful</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Nov, 2020</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>A perfect bat but the weight is less</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SHADAB KHAN</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nice product</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mar, 2020</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Good bat for lather ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Worth every penny</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>It is a nice bat for playing big shots 😍😍😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>KARTHICK VEL</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Highly recommended</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Jul, 2020</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Good product</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AZEEN AHMAD</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Classy product</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Jul, 2020</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>G J  DARLING</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Wonderful</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2 months ago</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Very good 😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2 months ago</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Very nice bat for me what a punch!! No damage not a single promblem very nice product thankyou so much flipkart for you protection of the order the bat is covered with full protection nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AYUSH SINGH</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Terrific purchase</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Apr, 2023</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Nice bat😎</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Feb, 2022</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Good product but weight is little bit heavy very good bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>VIJAY VIJAY</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Terrific</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Jul, 2020</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Apr, 2021</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Wow amazing</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RAHUL RAJPUT</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Wonderful</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Feb, 2021</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Mind blowing Cricket bat ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SURESH SHINGNE</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Perfect product!</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Very Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Brilliant</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Aug, 2020</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PATHAN AJEEM</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Highly recommended</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Oct, 2019</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Awesome</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sep, 2019</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SANJITA SHEOKHAND</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Awesome</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Jul, 2019</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>DIVYANSHU  POONIA</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Super!</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Jun, 2019</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>very nice bat . delivery was 1 day before . thanks flipcart .</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AMRUT SUNA</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jun, 2019</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1150 gram weight.                                                                (7 to 8 grains  not straight)3 pices handleonly for tennis ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RATNADEEP BANSODE</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Decent product</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jun, 2021</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Bat is differentBat shown in image has 3 rubber handel and which I have received has 2 rubber strips handel</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANIMESH  RAVA </t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Worth the money</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sep, 2020</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Bat is very Good.. but, the Cover not good as my expectation. But that's don't matter bcz Main thing is the Bat. This the best entry level bat in this price range.. But If you are looking for a best quality heavy tennis ball bat,,This is best.... Go for it</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NARENDER MALIK</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Brilliant</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Jan, 2021</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Very very good bat 😍😍</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Waste of money!</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>3 months ago</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>One of the worst product. Please do not purchase these kind of products. Bat was broken in just one hour while playing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADITYA RAWAT </t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Does the job</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4 months ago</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Just average</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BISHAL RAJBHAR</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4 months ago</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Nice bat and cover low quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>PANKAJ UPADHYAY</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>4 months ago</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Nice Bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>HARISH  BOYA</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4 months ago</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>AMAN KUMAR</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hated it!</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Bad products</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Very good nice bat for Starting</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Best in the market!</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>I'm writing this review after a few months of usageIt is a good bat for hard tennis ball, value for money</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SANCHIT SHARMA</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Terrific purchase</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>The product is nice but it is over price</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Awesome Quleaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SWAYAM RAJPUT</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Worst experience ever!</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>5 months ago</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Low quality sir</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>KUNAL KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Not recommended at all</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Very bad quality batDon't buy this product</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>VIKAS GURJAR</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Nice product</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Good quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MR BHUPPI DHAMI</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>This is nice ! I like it</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>VISHNU PRASAD VERMA</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Nice product</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SANDEEP SINHA</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Terrific</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>WowIt's amazing product very good i'm very happyThanks flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Must buy!</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>6 months ago</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Nice bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MUKESH VAISHNAV</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Terrific purchase</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Look good and also good with leather ball classics cricket</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Better</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Super!</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>very good for leather ball played very comfort well shots are done just in touches good for 20 over matches not for test but you can play for test also</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Slightly disappointed</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Not Expected 😏</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DEEWAKAR  SINGH</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pretty good</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Best bat ever</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Fabulous!</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Very nice bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>VIKAS  PATIL</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Very nice bat must by orginal ss bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MURALIDHARAN</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Awesome</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>7 months ago</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUZAHIRUL  ISLAM </t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Perfect product!</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Well product 👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Delightful</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Value for money bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RAVI RAI</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Quality is good must buy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Mind-blowing purchase</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>11 months ago</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Very very best bat 🥰🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>BIKASH KUMAR SADANGI</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>May, 2023</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Excellent bat 👌👌</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>KUNTAL PAL</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Must buy!</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>May, 2023</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>The ss josh bat is a very very good</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>TEAM NABIL BOSS</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Decent product</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>May, 2023</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Very nice bed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>CHANDRAKANT  VETAL</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Simply awesome</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>May, 2023</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Good nice product</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANSHUL  SINGHANIYA </t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Apr, 2023</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Nice i love it or thanks Flipkart or it's team or delivery persons so amazing or protectively order has been given to me .. i really love this company or it's management and so amazing product</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ABHISHEK KUMAR</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Worth every penny</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Apr, 2023</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Very Good Bat❤️❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Terrific purchase</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Apr, 2023</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Best bat ever seen</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Apr, 2023</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Bat was very nice Good strock</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SIMA SARDAR</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Awesome</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mar, 2023</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Good 👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SURYA DAS</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Highly recommended</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Mar, 2023</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Best</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>₹2,299</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>FLIPKART CUSTOMER</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Must buy!</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Mar, 2023</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Very nice product</t>
         </is>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -488,40 +488,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SADA SIVA</t>
+          <t>SIDDHARTH MALHOTRA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Good choice</t>
+          <t>Perfect product!</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sep, 2020</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Got the bat in good shape..Pros. : Stunning eye catching look.           Sweet spot is good            Weights around 1kg             Grains are good enough            Bat grip was so nice to feel      Overall good bat with good performance Cons: small spots can be covered by just painting or something like that.           Toe gaurd is absent.. should have included in this.           Hump is not good ..           Overall good bat at good price.</t>
+          <t>Nice product with all features specially its looks and camera battery backup is goodYou should buy it without any issues</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AAKIF AHMED NAIK</t>
+          <t>AJIN V</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -556,17 +556,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Simply awesome</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov, 2020</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Best bat I like it very much.</t>
+          <t>High quality camera😍</t>
         </is>
       </c>
     </row>
@@ -578,22 +578,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SUSHANTA KUMAR MOHANTY</t>
+          <t>NIKHIL KUMAR</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -601,17 +601,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Simply awesome</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mar, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Mast bat</t>
+          <t>No doubt this smartphone an art.</t>
         </is>
       </c>
     </row>
@@ -623,22 +623,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MD SHOEB HASNAIN</t>
+          <t>PRITHIVI BORUAH</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -646,17 +646,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Jun, 2019</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Best bat in this range...... I like it 😍</t>
+          <t>Camera Quality Is Improved Loving It</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KARAN  JADHAV</t>
+          <t>ARUNJI GOVINDARAJU</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mar, 2020</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Very good bat for beginner and like it</t>
+          <t>Awesome product very happy to hold this. Better In hand feel,matte finish. Good camera, Brighter screen with Dynamic Island, USB-C, great battery life.60Hz display is a dealbreaker for some.Its not much noticeable.Thank u Flipkart for the best deal and quick delivery.</t>
         </is>
       </c>
     </row>
@@ -713,22 +713,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MAHESWAR SAMAL</t>
+          <t>TALIM (SK)</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -736,17 +736,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nov, 2022</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Supern</t>
+          <t>I love this phone. The camera is amazing: its I am so happy</t>
         </is>
       </c>
     </row>
@@ -758,40 +758,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANUJ CHHETRI</t>
+          <t>SHEETLA PRASAD MAURYA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Oct, 2020</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>very good bat for hard tennis ball. But I haven't tried with leather ball.... but for hard tennis ball, it's very good for long hits. width is good</t>
+          <t>Best mobile phoneCamera quality is very nice Battery backup is very good Sound quality is amazing.</t>
         </is>
       </c>
     </row>
@@ -803,40 +803,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SHIVA TRIPATHI</t>
+          <t xml:space="preserve">MOHIT  YADAV </t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Value-for-money</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aug, 2021</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Good Bat My Height is 5:2 And SH Size is Good For MeCover Not Good 😐</t>
+          <t>Nice ❤️</t>
         </is>
       </c>
     </row>
@@ -848,40 +848,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RIDHISH GUPTA</t>
+          <t>MOUSAM  GUHA ROY</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Simply awesome</t>
+          <t>Good choice</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Apr, 2022</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bat is very good for Vicky ball</t>
+          <t>Very nice</t>
         </is>
       </c>
     </row>
@@ -893,40 +893,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SUBHAMOY  DAS</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delightful</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Feb, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>SS original product. It's good entry level bat with Large sweet spot. Balance is very good with nice design. The only drawback I have found so far is weight of the bat. A bit heavy. But perfect for those who likes a bit heavy bats.</t>
+          <t>Awesome photography experience. Battery backup is good . Display is much better than 14 version.</t>
         </is>
       </c>
     </row>
@@ -938,22 +938,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>NIKHIL KUMAR</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -961,17 +961,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Jul, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>i can trust on entrepreneur of flipkart that assuredTheir product is  very good that's original i get........................</t>
+          <t>Switch from OnePlus to iPhone I am stunned with camera performance. Everything is perfect on  iPhone 15.</t>
         </is>
       </c>
     </row>
@@ -983,22 +983,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>KRITI CUSTOMER</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fabulous!</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>May, 2021</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Happy happy children</t>
+          <t>Just loved the product , colour , design is wow and camera is amazing , just clicked first picture of my grandmother 👵🏻  in portrait mode and results r here in front of you guys 😍😘</t>
         </is>
       </c>
     </row>
@@ -1028,22 +1028,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MANOJ  ADHIKARI</t>
+          <t>RAHUL SHEDGE</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jul, 2021</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Happy with the bat.. Not heavy. Best bat for intermediate level playing. Good shots can be played after knocking it.</t>
+          <t>Totally happy!Camera 5Battery 5 Display 5Design 5</t>
         </is>
       </c>
     </row>
@@ -1073,40 +1073,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>AYUSH SINGH</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fair</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aug, 2021</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Very good product's</t>
+          <t>best camera and battery is also very good In love with dynamic Island Type-c charging is very fast. Overall best phone</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J SAKUL HAMEED</t>
+          <t>RAJ SINGH</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Simply awesome</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Oct, 2021</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Im waiting For My new favourite bat My friend Pickup Hyderabad To Oman</t>
+          <t>for me its 10 out of 10✨</t>
         </is>
       </c>
     </row>
@@ -1163,40 +1163,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t xml:space="preserve">ANKIT  VERMA </t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Does the job</t>
+          <t>Really Nice</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Mar, 2019</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>Awesome camra quality superb camra 😊</t>
         </is>
       </c>
     </row>
@@ -1208,22 +1208,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">RAHUL  VERMA </t>
+          <t>SAURABH GOTHWAD</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Oct, 2018</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>this is good product  value for money 💰</t>
+          <t>Simply premium.</t>
         </is>
       </c>
     </row>
@@ -1253,40 +1253,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GIRISH MANDAL</t>
+          <t>SUMAN JAIN</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Just okay</t>
+          <t>Best in the market!</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Jul, 2020</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Quite Good , but not expected so ......! Dont purchase for intermediate level.... It is only for beginners ...... Because the surface of the bat is light soft...! So you need to play first with dues ball then tenis ball .....! So guys as your wish it is quite good ...! Not so ....</t>
+          <t>Simply Awesome 🤩</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SHEKAR V</t>
+          <t>SANDIP MANDAL</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jan, 2019</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>value for money , I liked it</t>
+          <t>Great!</t>
         </is>
       </c>
     </row>
@@ -1343,40 +1343,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>AKSHAY MEENA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Decent product</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Oct, 2022</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Good but quality issue</t>
+          <t>So beautiful, so elegant, just a vowww😍❤️</t>
         </is>
       </c>
     </row>
@@ -1388,40 +1388,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RAMAKANTA  MALLICK</t>
+          <t>JAYANTA  ROY</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A little weight 1150gms, below 1 kg would be better for hard tenis or leather ball</t>
+          <t>Nice 🙂🙂🙂🙂🙂</t>
         </is>
       </c>
     </row>
@@ -1433,40 +1433,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>YOGANAND K</t>
+          <t>PRAVEEN KUMAR</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Simply awesome</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Jul, 2019</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>very good Bat to play cricket with red colour Tennis-Cricket ball.</t>
+          <t>This is my first iphone ever used loving it already this is worth it 🥰</t>
         </is>
       </c>
     </row>
@@ -1478,40 +1478,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SANDEEP SOMAN</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Good choice</t>
+          <t>Best in the market!</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Apr, 2019</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>lethar pall Bat comming</t>
+          <t>48 megapixel is lit🔥Thin bessels compared to 14Lesser in weightDynamic Island works perfectlyGood battery backup ⚡My rating 5/5</t>
         </is>
       </c>
     </row>
@@ -1523,22 +1523,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ANURADHA BASTIA</t>
+          <t>AKHILESH BEPARI</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aug, 2020</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Nice bat for net practice and beginners . My suggestion is please knock it before playing because the fibre of the willow/wood is not attach with each other properly so when you knock the bat it becomes a nice and wonderful bat.</t>
+          <t>It's performance is super and nice camera also a ok battery backup..</t>
         </is>
       </c>
     </row>
@@ -1568,22 +1568,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RAJA  DAS</t>
+          <t>SHASHANK PATHAK</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Classy product</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aug, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tnq to give us a bat in lockdown time</t>
+          <t>Great Experience Flipkart I am giving 10 of 10 Camera, Sound, Screen... Transportation Mi note 9 pro Max to Iphone 15 .</t>
         </is>
       </c>
     </row>
@@ -1613,40 +1613,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>ZEESHAN KHAN</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pretty good</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Okay enough for Money</t>
+          <t>Awesome quality I am very happy. Thank you Flipkart.</t>
         </is>
       </c>
     </row>
@@ -1658,40 +1658,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SAJIB DAS</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Really Nice</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nov, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Suitable for leather ball. Good for beginners. This bat needs knocking</t>
+          <t>moving from android to apple is a surreal experience. still apple could focus on more flexibility towards the apps.</t>
         </is>
       </c>
     </row>
@@ -1703,40 +1703,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FAREED SHAIK</t>
+          <t>ATUL NEGI</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nice product</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nov, 2019</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Awesome and Super bat for Grace ball tournament</t>
+          <t>It looks so good in my hand !.......WAU?</t>
         </is>
       </c>
     </row>
@@ -1748,40 +1748,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SAHIL SAEED</t>
+          <t xml:space="preserve">DEV  KUMAR </t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Value-for-money</t>
+          <t>Perfect product!</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Yup it was a good bat. But idk it is for leather ball. Why bcoz the bat handle was so weak. It just broken where it hits wrong side of the bat so be careful. But I do knocking my bat for leather ball purpose. Hope it does a pretty good job. So you have to buy this do knocking immediately. Otherwise it will perfect for all kind of balls like stumper, wind ball , cosco etc....</t>
+          <t>Camera quality top notch 👍</t>
         </is>
       </c>
     </row>
@@ -1793,22 +1793,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RIMPA DEBNATH</t>
+          <t>SONAL PAL</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mind-blowing purchase</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Very very very nice product</t>
+          <t>Awesome phone powerful performance and battery backup are also very good no heating issue ☺️</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EBINESH J</t>
+          <t>NIRMALA SAHU</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Value-for-money</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sep, 2019</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>fantastic</t>
+          <t>Just ok like any other premium android phone. Sound is just fantastic and face unlock feature is more convenient than fingerprint scanner. Battery backup is more than android 5000 mah battery. This is my frist iPhone, migrated from android due to chipset heating problem in Google tensor chip and Samsung exonys processsor.</t>
         </is>
       </c>
     </row>
@@ -1883,40 +1883,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>ABHIJIT KUMAR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Does the job</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Apr, 2022</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bats are coming small please don't buy but alonly small but All are good</t>
+          <t>A perfect n balanced phone ❣️. Was thinking of switching to ios from last two years and yeah its worth buying the black beauty 🖤.</t>
         </is>
       </c>
     </row>
@@ -1928,40 +1928,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MD NIZAMUDDIN</t>
+          <t>NAVEEN S</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Just go for it... Brilliant product...👍🏻💯</t>
+          <t>Good choice</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Next level choice for beginner cricketers..... Just amazing and awesome product.... It is more attractive than expected... Go for it... Just wow in this price range...👍🏻❤️🤩</t>
+          <t>Very nice product☺️☺️we loved the phone very much</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INDRAJEET  PATEL</t>
+          <t>NILESH  YADAV</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Worth every penny</t>
+          <t>Terrific</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mar, 2019</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Best in class..! Superb camera and performance. Fine grip.</t>
         </is>
       </c>
     </row>
@@ -2018,40 +2018,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MUJAMIL MUJJU</t>
+          <t>RAHUL  SEN</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Jun, 2019</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>superb</t>
+          <t>Such a amazing phone 🫶🏻</t>
         </is>
       </c>
     </row>
@@ -2063,40 +2063,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RETHISH R</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Delightful</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>This bat is ideal for beginners and intermediate players. It offers a cool design and has a good ping. It weighs 1150 grams, which makes it suitable for this price range. It is a great bat for playing with a stitched ball, catering to both beginners and intermediate players. Additionally, it provides powerful hitting with hard tennis balls</t>
+          <t>Camera 🔥</t>
         </is>
       </c>
     </row>
@@ -2108,40 +2108,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SUBHABRATA KANDAR</t>
+          <t>MUKESH KUMAR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pretty good</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>May, 2021</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Good strockGood balance1.15 kgBut down lather have no moreSo I give 4 star</t>
+          <t>Pic Quality Awesome</t>
         </is>
       </c>
     </row>
@@ -2153,40 +2153,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>KISHU KUMAR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Value-for-money</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Apr, 2021</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Bat is good little bit Weight...but Amd small crack on edge it's ok</t>
+          <t>Absolutely premium product..just wow</t>
         </is>
       </c>
     </row>
@@ -2198,40 +2198,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>JAY SINGH</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Good choice</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Really a great product but 1 star I took it because cover is not to good</t>
+          <t>Just upgraded from iphone 12 to 15 and I totally loved this 15 series.Camera:- No doubt iphones camera are best of any other smartphone, primary camera is now 48mp which gives quite sharp images, 2x in portrait mode is definitely a game changer in base varient.Battery:- 3349 mAH is quite better as compared to older versions.Performance:- Apple improve performance by introducing A-16 bionic chip, no doubt performance is on top.Display:- In display we get dynamic island which gives phone mo...</t>
         </is>
       </c>
     </row>
@@ -2243,22 +2243,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KANCHAN THAKKAR</t>
+          <t>ARPAN DEWANJEE</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Delightful</t>
+          <t>Worth the money</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nov, 2020</t>
+          <t>2 months ago</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>A perfect bat but the weight is less</t>
+          <t>Writing this review after extensive usage. Hope it helps interested buyers decide.1. Display:- 4/5 (Great display but limited to 60Hz in 2023-24)2. Camera:- 4/5 (Great cameras but no telephoto at this price segment but this time Apple really nailed it with the 15 series 24mp shots are very sharp and detailed)3. Performance:- 5/5 (One of the fastest SOC available right now)4. Battery:- 3/5 (Average battery life also charger not included in the box and still charges slowly with the 20w bric...</t>
         </is>
       </c>
     </row>
@@ -2288,40 +2288,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SHADAB KHAN</t>
+          <t>VIPIN  KUMAR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nice product</t>
+          <t>Must buy!</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mar, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Good bat for lather ball</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
@@ -2333,22 +2333,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>PRIYANKA THAKUR</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Worth every penny</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>It is a nice bat for playing big shots 😍😍😍</t>
+          <t>Loved it👍🏻. Great performance and not facing any kind of heating problem. Impressed by battery performance.</t>
         </is>
       </c>
     </row>
@@ -2378,22 +2378,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KARTHICK VEL</t>
+          <t>MANYA CUSTOMER</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Jul, 2020</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>The phone is pretty awesome! Switching from android to ios. Smooth performance, amazing camera and battery backup so far is great. Worth it!</t>
         </is>
       </c>
     </row>
@@ -2423,40 +2423,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AZEEN AHMAD</t>
+          <t>MONISH B</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Classy product</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Jul, 2020</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Battery is worst!I am moving from android, so i feel my 20k android phone is better than this iphone. Although i brought this for apple ecosystem!</t>
         </is>
       </c>
     </row>
@@ -2468,22 +2468,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>G J  DARLING</t>
+          <t>PURNENDU MONDAL</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Very good 😊</t>
+          <t>Switch from android to iPhone😍Just wow. Camera and battery backup is outstanding for daily use</t>
         </is>
       </c>
     </row>
@@ -2513,22 +2513,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>AFZOL  HUSSAIN</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Very nice bat for me what a punch!! No damage not a single promblem very nice product thankyou so much flipkart for you protection of the order the bat is covered with full protection nice.</t>
+          <t>Thanks Flipkart I m glad such a beautiful iPhone 15</t>
         </is>
       </c>
     </row>
@@ -2558,40 +2558,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AYUSH SINGH</t>
+          <t>THILAK KUMAR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Apr, 2023</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Nice bat😎</t>
+          <t>I upgraded from iPhone 13 to 15 and this phone is awesome worth the money go for it</t>
         </is>
       </c>
     </row>
@@ -2603,22 +2603,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>MINU CHOUDHARY</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Feb, 2022</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Good product but weight is little bit heavy very good bat</t>
+          <t>using it as a secondary phone , got it at 61.5k including all the offers (except exchange) , great value for money phone , but yeah due to the lower refresh rate , you will less smoothness if you have used pro models before , still its  great..!</t>
         </is>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VIJAY VIJAY</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2671,17 +2671,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Terrific</t>
+          <t>Must buy!</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Apr, 2021</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Wow amazing</t>
+          <t>This mobile is phenomenal, I like the camera most</t>
         </is>
       </c>
     </row>
@@ -2693,22 +2693,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>RAHUL RAJPUT</t>
+          <t>ASHISH  RAJ</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Wonderful</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Feb, 2021</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Mind blowing Cricket bat ❤️</t>
+          <t>Awesome phone ❤️</t>
         </is>
       </c>
     </row>
@@ -2738,22 +2738,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SURESH SHINGNE</t>
+          <t>BHASKAR SHARMA</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Perfect product!</t>
+          <t>Classy product</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Very Nice</t>
+          <t>Awesome</t>
         </is>
       </c>
     </row>
@@ -2783,22 +2783,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SHIVANI JAIN</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aug, 2020</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Awesome😍switch from android to iOS</t>
         </is>
       </c>
     </row>
@@ -2828,22 +2828,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PATHAN AJEEM</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Oct, 2019</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>Superb... Shifted from Android to iPhone 15..classs👍</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>AMITABH SRIVASTAVA</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2896,17 +2896,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep, 2019</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>This is an amazing phone and back side of phone is frozen glass which makes it less prone to finger marks while holding. Till now enjoying it, will update with further details after a week.</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SANJITA SHEOKHAND</t>
+          <t>JAYANTH JAI</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2941,17 +2941,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Terrific</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Jul, 2019</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Their is nothing to explain about Apple iPhone nowadays everyone knows when ur comes to iPhone 15 is just amazing 🔥</t>
         </is>
       </c>
     </row>
@@ -2963,22 +2963,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DIVYANSHU  POONIA</t>
+          <t>K.SRINATH SRI</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2986,17 +2986,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Super!</t>
+          <t>Perfect product!</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jun, 2019</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>very nice bat . delivery was 1 day before . thanks flipcart .</t>
+          <t>Amazing product❤️❤️Best iPhone out of all the iPhone series</t>
         </is>
       </c>
     </row>
@@ -3008,40 +3008,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AMRUT SUNA</t>
+          <t>SHAILESH CHOUDHARI</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Jun, 2019</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1150 gram weight.                                                                (7 to 8 grains  not straight)3 pices handleonly for tennis ball</t>
+          <t>Best phone i have ever used in terms of performance, photography and other features.</t>
         </is>
       </c>
     </row>
@@ -3053,40 +3053,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>RATNADEEP BANSODE</t>
+          <t>AJAY VISHWAKARMA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Decent product</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Jun, 2021</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bat is differentBat shown in image has 3 rubber handel and which I have received has 2 rubber strips handel</t>
+          <t>Love the performance 👍</t>
         </is>
       </c>
     </row>
@@ -3098,40 +3098,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANIMESH  RAVA </t>
+          <t>SUBHODEEP ROY</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Worth the money</t>
+          <t>Does the job</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep, 2020</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bat is very Good.. but, the Cover not good as my expectation. But that's don't matter bcz Main thing is the Bat. This the best entry level bat in this price range.. But If you are looking for a best quality heavy tennis ball bat,,This is best.... Go for it</t>
+          <t>Fully satisfied 👍🏻</t>
         </is>
       </c>
     </row>
@@ -3143,22 +3143,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NARENDER MALIK</t>
+          <t xml:space="preserve">SANJAY  YADAV </t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3166,17 +3166,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Jan, 2021</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Very very good bat 😍😍</t>
+          <t>Good product</t>
         </is>
       </c>
     </row>
@@ -3188,40 +3188,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>ANUP SINGH GAUTAM</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Waste of money!</t>
+          <t>Terrific purchase</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>One of the worst product. Please do not purchase these kind of products. Bat was broken in just one hour while playing.</t>
+          <t>Absolutely gorgeous 😻</t>
         </is>
       </c>
     </row>
@@ -3233,40 +3233,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADITYA RAWAT </t>
+          <t>HARPREET SINGH</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Does the job</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Just average</t>
+          <t>v v good</t>
         </is>
       </c>
     </row>
@@ -3278,40 +3278,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BISHAL RAJBHAR</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Really Nice</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Nice bat and cover low quality</t>
+          <t>Best for regular usage</t>
         </is>
       </c>
     </row>
@@ -3323,40 +3323,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PANKAJ UPADHYAY</t>
+          <t>PREENIT  RAI</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Really Nice</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Nice Bat</t>
+          <t>Camera is good but not too good like other camera phone.Performance is good but missed 90hz display.Battery is good enough for a day use.Sound is quite awesome like no other phonesRest phone is good to go for.</t>
         </is>
       </c>
     </row>
@@ -3368,22 +3368,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HARISH  BOYA</t>
+          <t>ROHIT PINGALE</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Really Nice</t>
+          <t>Terrific</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Nice Colour</t>
         </is>
       </c>
     </row>
@@ -3413,40 +3413,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AMAN KUMAR</t>
+          <t>NALINAKSHYA SAHOO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hated it!</t>
+          <t>Nice product</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bad products</t>
+          <t>Phone is good. Good battery backup , upgraded camera. But I feel refresh rate should be 90hz atleast.</t>
         </is>
       </c>
     </row>
@@ -3458,40 +3458,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>MOHIT RAJ</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Nice product</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Very good nice bat for Starting</t>
+          <t>I have been an Android phone user since  ever, until now.The matte frosting on the back is marvelous and doesn't attract fingerprints or smudges.I love the form factor as it's one hand friendly.For better gaming experience users should opt for the plus size.The screen is great with excellent outdoor visibility. The battery life is crazy good especially the standby time. Barely sips anything overnight. I am using an Android fast charger to charge this and the charging time is decent, no is...</t>
         </is>
       </c>
     </row>
@@ -3503,22 +3503,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SURAJ MEHRA</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3526,17 +3526,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Best in the market!</t>
+          <t>Just wow!</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>I'm writing this review after a few months of usageIt is a good bat for hard tennis ball, value for money</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
@@ -3548,22 +3548,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SANCHIT SHARMA</t>
+          <t xml:space="preserve">SHUBHANKER  SINGH </t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>The product is nice but it is over price</t>
+          <t>Simply wow wow wow 😍❤️</t>
         </is>
       </c>
     </row>
@@ -3593,22 +3593,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>ARMAN ALI</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Awesome Quleaty</t>
+          <t>Pros48MP Camera With 2x Zoom. Dynamic Island. USB-C Port. Superb Design and Premium Build. ConsOnly 60Hz Display Refresh Rate. Slow Charging. No Action Button. No Always-on Display. Rating Camera - 4.5/5 Battery - 4/5 Performance - 4.5/5 Charging - 4/5 Display - 4/5 Design and Build - 4.5/5 Sound - 4/5 Software - 4.5/5 Value For Money - 4/5 Overall Experience - 4.5/5Hit Like 👍 Button If This Review Really Helps You.</t>
         </is>
       </c>
     </row>
@@ -3638,30 +3638,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SWAYAM RAJPUT</t>
+          <t xml:space="preserve">AARIF  KHAN </t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Worst experience ever!</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Low quality sir</t>
+          <t>Apple iPhone 15 blue 128GB GOOD MOBILE  phone Name Aarif khan Alwar Rajasthan Indian</t>
         </is>
       </c>
     </row>
@@ -3683,40 +3683,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>KUNAL KUMAR SINGH</t>
+          <t>RAJVEER SINGH</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Not recommended at all</t>
+          <t>Awesome..</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Very bad quality batDon't buy this product</t>
+          <t>Best in class Device, Apple never ceases to Amaze customers. Lightweight and sleek look. Matte back finish helps with a fine grip.</t>
         </is>
       </c>
     </row>
@@ -3728,40 +3728,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VIKAS GURJAR</t>
+          <t>MOHAMMAD SHAHNAWAZ</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nice product</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Good quality</t>
+          <t>Gud product</t>
         </is>
       </c>
     </row>
@@ -3773,22 +3773,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MR BHUPPI DHAMI</t>
+          <t xml:space="preserve">SHIVAM MAURYA </t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>This is nice ! I like it</t>
+          <t>Nice productBest phone 📱</t>
         </is>
       </c>
     </row>
@@ -3818,40 +3818,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VISHNU PRASAD VERMA</t>
+          <t>GULSHAN  AHMED</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nice product</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Overall same</t>
         </is>
       </c>
     </row>
@@ -3863,22 +3863,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SANDEEP SINHA</t>
+          <t>URGAIN NORZIN</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3886,17 +3886,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Terrific</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>WowIt's amazing product very good i'm very happyThanks flipkart</t>
+          <t>It's amazing nd also the delivery boy was very humble.</t>
         </is>
       </c>
     </row>
@@ -3908,30 +3908,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>MOHAMMAD AMIR</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Must buy!</t>
+          <t>Just okay</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Nice bat</t>
+          <t>Design and performance is good. But somehow I felt the quality and standard is not the same as it used to be. It does heat up while charging and prolonged usage. This is unexpected and unacceptable. Also there are connectivity issues with Apple CarPlay.</t>
         </is>
       </c>
     </row>
@@ -3953,22 +3953,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MUKESH VAISHNAV</t>
+          <t>NOOR ALAM</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3976,17 +3976,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Look good and also good with leather ball classics cricket</t>
+          <t>Awsm 😍😍</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SHARON LEPCHA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Fabulous!</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Better</t>
+          <t>I was sceptical of online purchase but I was wrong I got what I ordered Best phone ever</t>
         </is>
       </c>
     </row>
@@ -4043,17 +4043,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Super!</t>
+          <t>Terrific purchase</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>very good for leather ball played very comfort well shots are done just in touches good for 20 over matches not for test but you can play for test also</t>
+          <t>Nice one 🫶</t>
         </is>
       </c>
     </row>
@@ -4088,40 +4088,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>NASIR UDDIN SHEIKH</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Slightly disappointed</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Not Expected 😏</t>
+          <t>iPhone 15 impresses with sleek design, powerful performance, and stunning camera upgrades. A technological leap forward, delivering a top-tier experience. 😍😊👍</t>
         </is>
       </c>
     </row>
@@ -4133,40 +4133,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DEEWAKAR  SINGH</t>
+          <t>ANISH SANJAY</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Pretty good</t>
+          <t>Brilliant</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>1 month ago</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Best bat ever</t>
+          <t>Really its the best and richest design 😍</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>ABHISHEK YADAV</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4201,17 +4201,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Fabulous!</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Very nice bat</t>
+          <t>Amazing camera quality</t>
         </is>
       </c>
     </row>
@@ -4223,22 +4223,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VIKAS  PATIL</t>
+          <t>SURABHI DAS</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4246,17 +4246,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Very nice bat must by orginal ss bat</t>
+          <t>Awesome...</t>
         </is>
       </c>
     </row>
@@ -4268,22 +4268,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MURALIDHARAN</t>
+          <t>SAYAN RAY</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Nice device!</t>
         </is>
       </c>
     </row>
@@ -4313,22 +4313,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUZAHIRUL  ISLAM </t>
+          <t>KARMESH RATHORE</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Perfect product!</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Well product 👍</t>
+          <t>The BEST CAMERA PHONE OUT THERE, was in dilemma to buy s23 , but i chose this . And yes thats a wise decision , 60z is not a major con although it saves battery but 120 would be great. A16 is outstanding coupled with ios. In video quality nothing can beat it. Go for it for camera samples go with my uploaded photos one in daylight while other in night</t>
         </is>
       </c>
     </row>
@@ -4358,40 +4358,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>PRIYA  MM</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Delightful</t>
+          <t>Super!</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Value for money bat</t>
+          <t>The product is good, the battery is decent and there are no heating issues as public mentioned before buying this. Sound quality is amazing and no need speaker Display and picture quality like theatre experience. Small screen but lot of wonders</t>
         </is>
       </c>
     </row>
@@ -4403,22 +4403,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RAVI RAI</t>
+          <t>SHANAVAS VN</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4426,17 +4426,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Just wow!</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>9 months ago</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Quality is good must buy.</t>
+          <t>SUPER 12 MINI TO 15 😍😍😍</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4448,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t xml:space="preserve">YADU KRISHNAN </t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Mind-blowing purchase</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>11 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Very very best bat 🥰🥰</t>
+          <t>Awesome experience. thanks to flipkart</t>
         </is>
       </c>
     </row>
@@ -4493,22 +4493,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>BIKASH KUMAR SADANGI</t>
+          <t>RAGHUPATHIREDDY PAINDLA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4516,17 +4516,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>May, 2023</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Excellent bat 👌👌</t>
+          <t>Very good. Happy with the product. Camera quality and performance is amazing.</t>
         </is>
       </c>
     </row>
@@ -4538,40 +4538,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>KUNTAL PAL</t>
+          <t>SUSHOBHIT MEENA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Must buy!</t>
+          <t>Nice product</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>May, 2023</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>The ss josh bat is a very very good</t>
+          <t>Good phone but display 60 hz very slow in 2023</t>
         </is>
       </c>
     </row>
@@ -4583,40 +4583,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TEAM NABIL BOSS</t>
+          <t>FEROZ BASHA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Decent product</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>May, 2023</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Very nice bed</t>
+          <t>Loved this product ❤️❤️</t>
         </is>
       </c>
     </row>
@@ -4628,40 +4628,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CHANDRAKANT  VETAL</t>
+          <t>FLIPKART CUSTOMER</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Simply awesome</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>May, 2023</t>
+          <t>15 days ago</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Good nice product</t>
+          <t>Nice product</t>
         </is>
       </c>
     </row>
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANSHUL  SINGHANIYA </t>
+          <t>MOHD HASNAIN</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Apr, 2023</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Nice i love it or thanks Flipkart or it's team or delivery persons so amazing or protectively order has been given to me .. i really love this company or it's management and so amazing product</t>
+          <t>Upgraded from iPhone 11, The camera quality is awesomeThe display quality is great and the dynamic island working perfectlyHappy with Apple and Flipkart</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ABHISHEK KUMAR</t>
+          <t>DR BABU  MANDAL</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4741,17 +4741,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Worth every penny</t>
+          <t>Mind-blowing purchase</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Apr, 2023</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Very Good Bat❤️❤️</t>
+          <t>Marvellous camera. Light weight. Perfect handy. Used every pro version before 15. But trust me . I personally feel this 15 is at par with its pro version camera .</t>
         </is>
       </c>
     </row>
@@ -4763,22 +4763,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>AYAN DAS</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Terrific purchase</t>
+          <t>Worth every penny</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Apr, 2023</t>
+          <t>3 months ago</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Best bat ever seen</t>
+          <t>Light weight phone. Camera and sound is fine and performance is highly appreciable.</t>
         </is>
       </c>
     </row>
@@ -4808,22 +4808,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t>SYAM SUNDER</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Apr, 2023</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Bat was very nice Good strock</t>
+          <t>Camera is so good</t>
         </is>
       </c>
     </row>
@@ -4853,22 +4853,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SIMA SARDAR</t>
+          <t>SACHINAAAA</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Best in the market!</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Mar, 2023</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Good 👍</t>
+          <t>A fantastic product. I was an iPhone 13 user I have upgraded to this. Brilliant display. I can see a great difference in battery backup. I can also say that the Dynamic Island helps in UI to the users. Looks premium. Price range might drop in a year. Thanks for Flipkart sale days.</t>
         </is>
       </c>
     </row>
@@ -4898,22 +4898,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SURYA DAS</t>
+          <t>KALPESH SHIRSEKAR</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4921,17 +4921,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Must buy!</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Mar, 2023</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Best</t>
+          <t>Coming from iphone 12 mini.Camera is definitely a upgrade over the previous generation.Design outside remains the same. Pastel colours with matte finish.The Dynamic Island is what i liked for the notification part.Processor of previous generation pro models.Overall a value for money among the 15 models.Got it a great deal in flipkart clubbing exchange and bank offers.Delivery was on time.</t>
         </is>
       </c>
     </row>
@@ -4943,22 +4943,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>₹2,299</t>
+          <t>₹64,999</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ss Josh Kw Kashmir Willow Cricket Bat</t>
+          <t>Apple Iphone 15 Blue 128 Gb</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>FLIPKART CUSTOMER</t>
+          <t xml:space="preserve">UTPAL  MONDAL </t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4966,17 +4966,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Must buy!</t>
+          <t>Wonderful</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Mar, 2023</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Very nice product</t>
+          <t>This is undoubtedly the best in the market! Feels premium and also the performance is at par excellence! A beast in terms of camera quality and battery backup!</t>
         </is>
       </c>
     </row>
